--- a/Data/2017-Oly-Histo-Results-REDO.xlsx
+++ b/Data/2017-Oly-Histo-Results-REDO.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28331"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="2140" yWindow="0" windowWidth="23460" windowHeight="15460" tabRatio="500"/>
+    <workbookView xWindow="4620" yWindow="0" windowWidth="20980" windowHeight="15460" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="42">
   <si>
     <t>NF</t>
   </si>
@@ -123,12 +123,6 @@
     <t>might have accidentally swapped the gonad analysis for sn6-32 &amp; sn6-30</t>
   </si>
   <si>
-    <t>K</t>
-  </si>
-  <si>
-    <t>TBD</t>
-  </si>
-  <si>
     <t>NOTES</t>
   </si>
   <si>
@@ -145,6 +139,12 @@
   </si>
   <si>
     <t>10-AMBIENT</t>
+  </si>
+  <si>
+    <t>nice oocyte sample</t>
+  </si>
+  <si>
+    <t>or maybe 2 … lots of ripe sperm balls but also some unripe oocytes</t>
   </si>
 </sst>
 </file>
@@ -714,10 +714,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I98"/>
+  <dimension ref="A1:I97"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="E92" sqref="E92"/>
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+      <pane ySplit="560" activePane="bottomLeft"/>
+      <selection sqref="A1:XFD1"/>
+      <selection pane="bottomLeft" activeCell="G31" sqref="G31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -743,7 +745,7 @@
         <v>28</v>
       </c>
       <c r="E1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F1" t="s">
         <v>22</v>
@@ -755,7 +757,7 @@
         <v>26</v>
       </c>
       <c r="I1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -772,7 +774,7 @@
         <v>29</v>
       </c>
       <c r="E2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F2">
         <v>10</v>
@@ -798,7 +800,7 @@
         <v>29</v>
       </c>
       <c r="E3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F3">
         <v>11</v>
@@ -827,7 +829,7 @@
         <v>29</v>
       </c>
       <c r="E4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F4">
         <v>12</v>
@@ -853,7 +855,7 @@
         <v>29</v>
       </c>
       <c r="E5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F5">
         <v>13</v>
@@ -879,7 +881,7 @@
         <v>29</v>
       </c>
       <c r="E6" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F6">
         <v>14</v>
@@ -905,7 +907,7 @@
         <v>29</v>
       </c>
       <c r="E7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F7">
         <v>15</v>
@@ -934,7 +936,7 @@
         <v>30</v>
       </c>
       <c r="E8" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F8">
         <v>16</v>
@@ -960,7 +962,7 @@
         <v>30</v>
       </c>
       <c r="E9" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F9">
         <v>17</v>
@@ -986,7 +988,7 @@
         <v>30</v>
       </c>
       <c r="E10" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F10">
         <v>18</v>
@@ -1012,7 +1014,7 @@
         <v>30</v>
       </c>
       <c r="E11" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F11">
         <v>19</v>
@@ -1038,7 +1040,7 @@
         <v>30</v>
       </c>
       <c r="E12" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F12">
         <v>20</v>
@@ -1064,7 +1066,7 @@
         <v>30</v>
       </c>
       <c r="E13" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F13">
         <v>21</v>
@@ -1093,7 +1095,7 @@
         <v>29</v>
       </c>
       <c r="E14" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F14">
         <v>10</v>
@@ -1122,7 +1124,7 @@
         <v>29</v>
       </c>
       <c r="E15" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F15">
         <v>11</v>
@@ -1148,7 +1150,7 @@
         <v>29</v>
       </c>
       <c r="E16" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F16">
         <v>12</v>
@@ -1174,7 +1176,7 @@
         <v>29</v>
       </c>
       <c r="E17" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F17">
         <v>13</v>
@@ -1200,7 +1202,7 @@
         <v>29</v>
       </c>
       <c r="E18" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F18">
         <v>14</v>
@@ -1226,7 +1228,7 @@
         <v>29</v>
       </c>
       <c r="E19" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F19">
         <v>15</v>
@@ -1252,7 +1254,7 @@
         <v>30</v>
       </c>
       <c r="E20" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F20">
         <v>16</v>
@@ -1278,7 +1280,7 @@
         <v>30</v>
       </c>
       <c r="E21" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F21">
         <v>17</v>
@@ -1304,7 +1306,7 @@
         <v>30</v>
       </c>
       <c r="E22" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F22">
         <v>18</v>
@@ -1330,7 +1332,7 @@
         <v>30</v>
       </c>
       <c r="E23" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F23">
         <v>19</v>
@@ -1356,7 +1358,7 @@
         <v>30</v>
       </c>
       <c r="E24" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F24">
         <v>20</v>
@@ -1382,7 +1384,7 @@
         <v>30</v>
       </c>
       <c r="E25" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F25">
         <v>21</v>
@@ -1402,19 +1404,25 @@
         <v>42833</v>
       </c>
       <c r="B26" t="s">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="C26">
         <v>6</v>
       </c>
+      <c r="D26" t="s">
+        <v>29</v>
+      </c>
+      <c r="E26" t="s">
+        <v>36</v>
+      </c>
       <c r="F26">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="G26" t="s">
-        <v>35</v>
-      </c>
-      <c r="H26" t="s">
-        <v>35</v>
+        <v>6</v>
+      </c>
+      <c r="H26">
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -1431,16 +1439,16 @@
         <v>29</v>
       </c>
       <c r="E27" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F27">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G27" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H27">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -1457,13 +1465,13 @@
         <v>29</v>
       </c>
       <c r="E28" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F28">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G28" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H28">
         <v>0</v>
@@ -1483,10 +1491,10 @@
         <v>29</v>
       </c>
       <c r="E29" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F29">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G29" t="s">
         <v>4</v>
@@ -1509,16 +1517,19 @@
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F30">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G30" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="I30" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -1535,13 +1546,13 @@
         <v>29</v>
       </c>
       <c r="E31" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F31">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G31" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H31">
         <v>2</v>
@@ -1564,19 +1575,16 @@
         <v>29</v>
       </c>
       <c r="E32" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F32">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G32" t="s">
         <v>4</v>
       </c>
       <c r="H32">
-        <v>2</v>
-      </c>
-      <c r="I32" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -1593,16 +1601,16 @@
         <v>29</v>
       </c>
       <c r="E33" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F33">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G33" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H33">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -1619,16 +1627,16 @@
         <v>29</v>
       </c>
       <c r="E34" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F34">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G34" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H34">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -1642,19 +1650,22 @@
         <v>6</v>
       </c>
       <c r="D35" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E35" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F35">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G35" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H35">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="I35" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -1671,19 +1682,16 @@
         <v>30</v>
       </c>
       <c r="E36" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F36">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G36" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H36">
         <v>3</v>
-      </c>
-      <c r="I36" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -1700,16 +1708,19 @@
         <v>30</v>
       </c>
       <c r="E37" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F37">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G37" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="H37">
-        <v>3</v>
+        <v>2</v>
+      </c>
+      <c r="I37" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -1726,19 +1737,19 @@
         <v>30</v>
       </c>
       <c r="E38" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F38">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G38" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H38">
         <v>2</v>
       </c>
       <c r="I38" t="s">
-        <v>31</v>
+        <v>5</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -1755,19 +1766,19 @@
         <v>30</v>
       </c>
       <c r="E39" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F39">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G39" t="s">
         <v>6</v>
       </c>
       <c r="H39">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I39" t="s">
-        <v>5</v>
+        <v>32</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -1784,19 +1795,16 @@
         <v>30</v>
       </c>
       <c r="E40" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F40">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G40" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H40">
-        <v>1</v>
-      </c>
-      <c r="I40" t="s">
-        <v>32</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -1813,16 +1821,16 @@
         <v>30</v>
       </c>
       <c r="E41" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F41">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G41" t="s">
         <v>4</v>
       </c>
       <c r="H41">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -1839,16 +1847,16 @@
         <v>30</v>
       </c>
       <c r="E42" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F42">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G42" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H42">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -1865,16 +1873,16 @@
         <v>30</v>
       </c>
       <c r="E43" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F43">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G43" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H43">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -1885,22 +1893,22 @@
         <v>0</v>
       </c>
       <c r="C44">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D44" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E44" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F44">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="G44" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H44">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -1917,16 +1925,19 @@
         <v>29</v>
       </c>
       <c r="E45" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F45">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G45" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H45">
-        <v>3</v>
+        <v>2</v>
+      </c>
+      <c r="I45" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -1943,19 +1954,16 @@
         <v>29</v>
       </c>
       <c r="E46" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F46">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G46" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H46">
-        <v>2</v>
-      </c>
-      <c r="I46" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -1972,10 +1980,10 @@
         <v>29</v>
       </c>
       <c r="E47" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F47">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G47" t="s">
         <v>4</v>
@@ -1998,16 +2006,16 @@
         <v>29</v>
       </c>
       <c r="E48" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F48">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G48" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="H48">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -2024,16 +2032,16 @@
         <v>29</v>
       </c>
       <c r="E49" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F49">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G49" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="H49">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="50" spans="1:9">
@@ -2050,13 +2058,13 @@
         <v>29</v>
       </c>
       <c r="E50" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F50">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G50" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H50">
         <v>3</v>
@@ -2076,16 +2084,19 @@
         <v>29</v>
       </c>
       <c r="E51" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F51">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G51" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H51">
         <v>3</v>
+      </c>
+      <c r="I51" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="52" spans="1:9">
@@ -2102,19 +2113,19 @@
         <v>29</v>
       </c>
       <c r="E52" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F52">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G52" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H52">
         <v>3</v>
       </c>
       <c r="I52" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="53" spans="1:9">
@@ -2128,22 +2139,22 @@
         <v>10</v>
       </c>
       <c r="D53" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E53" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F53">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G53" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H53">
         <v>3</v>
       </c>
       <c r="I53" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="54" spans="1:9">
@@ -2160,19 +2171,16 @@
         <v>30</v>
       </c>
       <c r="E54" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F54">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G54" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H54">
-        <v>3</v>
-      </c>
-      <c r="I54" t="s">
-        <v>11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:9">
@@ -2189,13 +2197,13 @@
         <v>30</v>
       </c>
       <c r="E55" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F55">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G55" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H55">
         <v>0</v>
@@ -2215,16 +2223,19 @@
         <v>30</v>
       </c>
       <c r="E56" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F56">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G56" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="H56">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="I56" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="57" spans="1:9">
@@ -2241,10 +2252,10 @@
         <v>30</v>
       </c>
       <c r="E57" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F57">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G57" t="s">
         <v>7</v>
@@ -2252,9 +2263,6 @@
       <c r="H57">
         <v>2</v>
       </c>
-      <c r="I57" t="s">
-        <v>5</v>
-      </c>
     </row>
     <row r="58" spans="1:9">
       <c r="A58" s="1">
@@ -2270,16 +2278,16 @@
         <v>30</v>
       </c>
       <c r="E58" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F58">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G58" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="H58">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="59" spans="1:9">
@@ -2296,10 +2304,10 @@
         <v>30</v>
       </c>
       <c r="E59" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F59">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G59" t="s">
         <v>3</v>
@@ -2322,16 +2330,16 @@
         <v>30</v>
       </c>
       <c r="E60" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F60">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G60" t="s">
         <v>3</v>
       </c>
       <c r="H60">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="61" spans="1:9">
@@ -2348,16 +2356,19 @@
         <v>30</v>
       </c>
       <c r="E61" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F61">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G61" t="s">
         <v>3</v>
       </c>
       <c r="H61">
         <v>2</v>
+      </c>
+      <c r="I61" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="62" spans="1:9">
@@ -2365,28 +2376,28 @@
         <v>42833</v>
       </c>
       <c r="B62" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C62">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D62" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E62" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="F62">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="G62" t="s">
         <v>3</v>
       </c>
       <c r="H62">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I62" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
     </row>
     <row r="63" spans="1:9">
@@ -2403,19 +2414,19 @@
         <v>29</v>
       </c>
       <c r="E63" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F63">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G63" t="s">
         <v>3</v>
       </c>
       <c r="H63">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I63" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
     </row>
     <row r="64" spans="1:9">
@@ -2432,19 +2443,19 @@
         <v>29</v>
       </c>
       <c r="E64" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F64">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G64" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H64">
         <v>2</v>
       </c>
       <c r="I64" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="65" spans="1:9">
@@ -2461,19 +2472,16 @@
         <v>29</v>
       </c>
       <c r="E65" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F65">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G65" t="s">
+        <v>4</v>
+      </c>
+      <c r="H65">
         <v>1</v>
-      </c>
-      <c r="H65">
-        <v>2</v>
-      </c>
-      <c r="I65" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="66" spans="1:9">
@@ -2490,16 +2498,16 @@
         <v>29</v>
       </c>
       <c r="E66" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F66">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G66" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H66">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:9">
@@ -2516,16 +2524,16 @@
         <v>29</v>
       </c>
       <c r="E67" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F67">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G67" t="s">
+        <v>3</v>
+      </c>
+      <c r="H67">
         <v>1</v>
-      </c>
-      <c r="H67">
-        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:9">
@@ -2542,16 +2550,16 @@
         <v>29</v>
       </c>
       <c r="E68" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F68">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G68" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H68">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="69" spans="1:9">
@@ -2568,16 +2576,16 @@
         <v>29</v>
       </c>
       <c r="E69" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F69">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G69" t="s">
+        <v>4</v>
+      </c>
+      <c r="H69">
         <v>1</v>
-      </c>
-      <c r="H69">
-        <v>2</v>
       </c>
     </row>
     <row r="70" spans="1:9">
@@ -2594,16 +2602,16 @@
         <v>29</v>
       </c>
       <c r="E70" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F70">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G70" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H70">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="71" spans="1:9">
@@ -2617,19 +2625,22 @@
         <v>6</v>
       </c>
       <c r="D71" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E71" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F71">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G71" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H71">
         <v>2</v>
+      </c>
+      <c r="I71" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="72" spans="1:9">
@@ -2646,19 +2657,16 @@
         <v>30</v>
       </c>
       <c r="E72" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F72">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G72" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H72">
         <v>2</v>
-      </c>
-      <c r="I72" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="73" spans="1:9">
@@ -2675,16 +2683,16 @@
         <v>30</v>
       </c>
       <c r="E73" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F73">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G73" t="s">
         <v>6</v>
       </c>
       <c r="H73">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74" spans="1:9">
@@ -2701,16 +2709,16 @@
         <v>30</v>
       </c>
       <c r="E74" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F74">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G74" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H74">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="75" spans="1:9">
@@ -2727,16 +2735,16 @@
         <v>30</v>
       </c>
       <c r="E75" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F75">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G75" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="H75">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="76" spans="1:9">
@@ -2753,13 +2761,13 @@
         <v>30</v>
       </c>
       <c r="E76" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F76">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G76" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H76">
         <v>3</v>
@@ -2779,16 +2787,16 @@
         <v>30</v>
       </c>
       <c r="E77" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F77">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G77" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H77">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:9">
@@ -2805,16 +2813,19 @@
         <v>30</v>
       </c>
       <c r="E78" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F78">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G78" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H78">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="I78" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="79" spans="1:9">
@@ -2831,19 +2842,16 @@
         <v>30</v>
       </c>
       <c r="E79" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F79">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G79" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H79">
         <v>2</v>
-      </c>
-      <c r="I79" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="80" spans="1:9">
@@ -2854,22 +2862,25 @@
         <v>2</v>
       </c>
       <c r="C80">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D80" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E80" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F80">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="G80" t="s">
         <v>6</v>
       </c>
       <c r="H80">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="I80" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="81" spans="1:9">
@@ -2886,19 +2897,19 @@
         <v>29</v>
       </c>
       <c r="E81" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F81">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G81" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H81">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I81" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="82" spans="1:9">
@@ -2915,19 +2926,16 @@
         <v>29</v>
       </c>
       <c r="E82" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F82">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G82" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="H82">
         <v>2</v>
-      </c>
-      <c r="I82" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="83" spans="1:9">
@@ -2944,13 +2952,13 @@
         <v>29</v>
       </c>
       <c r="E83" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F83">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G83" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="H83">
         <v>2</v>
@@ -2970,16 +2978,16 @@
         <v>29</v>
       </c>
       <c r="E84" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F84">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G84" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H84">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="85" spans="1:9">
@@ -2996,16 +3004,16 @@
         <v>29</v>
       </c>
       <c r="E85" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F85">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G85" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H85">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="86" spans="1:9">
@@ -3022,16 +3030,16 @@
         <v>29</v>
       </c>
       <c r="E86" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F86">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G86" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H86">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:9">
@@ -3048,16 +3056,16 @@
         <v>29</v>
       </c>
       <c r="E87" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F87">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G87" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H87">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="88" spans="1:9">
@@ -3074,16 +3082,19 @@
         <v>29</v>
       </c>
       <c r="E88" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F88">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G88" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H88">
         <v>2</v>
+      </c>
+      <c r="I88" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="89" spans="1:9">
@@ -3097,22 +3108,19 @@
         <v>10</v>
       </c>
       <c r="D89" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E89" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F89">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G89" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H89">
-        <v>2</v>
-      </c>
-      <c r="I89" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="90" spans="1:9">
@@ -3129,16 +3137,16 @@
         <v>30</v>
       </c>
       <c r="E90" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F90">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G90" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H90">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="91" spans="1:9">
@@ -3155,16 +3163,16 @@
         <v>30</v>
       </c>
       <c r="E91" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F91">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G91" t="s">
         <v>1</v>
       </c>
       <c r="H91">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:9">
@@ -3181,16 +3189,19 @@
         <v>30</v>
       </c>
       <c r="E92" t="s">
+        <v>39</v>
+      </c>
+      <c r="F92">
+        <v>28</v>
+      </c>
+      <c r="G92" t="s">
+        <v>7</v>
+      </c>
+      <c r="H92">
+        <v>3</v>
+      </c>
+      <c r="I92" t="s">
         <v>41</v>
-      </c>
-      <c r="F92">
-        <v>27</v>
-      </c>
-      <c r="G92" t="s">
-        <v>35</v>
-      </c>
-      <c r="H92" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="93" spans="1:9">
@@ -3207,16 +3218,16 @@
         <v>30</v>
       </c>
       <c r="E93" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F93">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G93" t="s">
-        <v>35</v>
-      </c>
-      <c r="H93" t="s">
-        <v>35</v>
+        <v>6</v>
+      </c>
+      <c r="H93">
+        <v>2</v>
       </c>
     </row>
     <row r="94" spans="1:9">
@@ -3233,16 +3244,16 @@
         <v>30</v>
       </c>
       <c r="E94" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F94">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G94" t="s">
-        <v>35</v>
-      </c>
-      <c r="H94" t="s">
-        <v>35</v>
+        <v>4</v>
+      </c>
+      <c r="H94">
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:9">
@@ -3259,16 +3270,19 @@
         <v>30</v>
       </c>
       <c r="E95" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F95">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G95" t="s">
-        <v>35</v>
-      </c>
-      <c r="H95" t="s">
-        <v>35</v>
+        <v>6</v>
+      </c>
+      <c r="H95">
+        <v>3</v>
+      </c>
+      <c r="I95" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="96" spans="1:9">
@@ -3285,16 +3299,16 @@
         <v>30</v>
       </c>
       <c r="E96" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F96">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G96" t="s">
-        <v>35</v>
-      </c>
-      <c r="H96" t="s">
-        <v>35</v>
+        <v>1</v>
+      </c>
+      <c r="H96">
+        <v>2</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -3311,42 +3325,16 @@
         <v>30</v>
       </c>
       <c r="E97" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F97">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G97" t="s">
-        <v>35</v>
-      </c>
-      <c r="H97" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8">
-      <c r="A98" s="1">
-        <v>42833</v>
-      </c>
-      <c r="B98" t="s">
-        <v>2</v>
-      </c>
-      <c r="C98">
-        <v>10</v>
-      </c>
-      <c r="D98" t="s">
-        <v>30</v>
-      </c>
-      <c r="E98" t="s">
-        <v>41</v>
-      </c>
-      <c r="F98">
-        <v>33</v>
-      </c>
-      <c r="G98" t="s">
-        <v>35</v>
-      </c>
-      <c r="H98" t="s">
-        <v>35</v>
+        <v>3</v>
+      </c>
+      <c r="H97">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/Data/2017-Oly-Histo-Results-REDO.xlsx
+++ b/Data/2017-Oly-Histo-Results-REDO.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28331"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="4620" yWindow="0" windowWidth="20980" windowHeight="15460" tabRatio="500"/>
+    <workbookView xWindow="15160" yWindow="0" windowWidth="15880" windowHeight="15460" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="1" r:id="rId1"/>
@@ -193,8 +193,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="93">
+  <cellStyleXfs count="97">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -292,7 +296,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="93">
+  <cellStyles count="97">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -339,6 +343,8 @@
     <cellStyle name="Followed Hyperlink" xfId="88" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="90" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="92" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="94" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="96" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -385,6 +391,8 @@
     <cellStyle name="Hyperlink" xfId="87" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="89" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="91" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="93" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="95" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -717,9 +725,9 @@
   <dimension ref="A1:I97"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <pane ySplit="560" activePane="bottomLeft"/>
+      <pane ySplit="560" topLeftCell="A68" activePane="bottomLeft"/>
       <selection sqref="A1:XFD1"/>
-      <selection pane="bottomLeft" activeCell="G31" sqref="G31"/>
+      <selection pane="bottomLeft" activeCell="G80" sqref="G80:G97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -760,7 +768,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" hidden="1">
       <c r="A2" s="1">
         <v>42833</v>
       </c>
@@ -786,7 +794,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" hidden="1">
       <c r="A3" s="1">
         <v>42833</v>
       </c>
@@ -815,7 +823,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" hidden="1">
       <c r="A4" s="1">
         <v>42833</v>
       </c>
@@ -841,7 +849,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" hidden="1">
       <c r="A5" s="1">
         <v>42833</v>
       </c>
@@ -867,7 +875,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" hidden="1">
       <c r="A6" s="1">
         <v>42833</v>
       </c>
@@ -893,7 +901,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" hidden="1">
       <c r="A7" s="1">
         <v>42833</v>
       </c>
@@ -922,7 +930,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" hidden="1">
       <c r="A8" s="1">
         <v>42833</v>
       </c>
@@ -948,7 +956,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" hidden="1">
       <c r="A9" s="1">
         <v>42833</v>
       </c>
@@ -974,7 +982,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" hidden="1">
       <c r="A10" s="1">
         <v>42833</v>
       </c>
@@ -1000,7 +1008,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" hidden="1">
       <c r="A11" s="1">
         <v>42833</v>
       </c>
@@ -1026,7 +1034,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" hidden="1">
       <c r="A12" s="1">
         <v>42833</v>
       </c>
@@ -1052,7 +1060,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" hidden="1">
       <c r="A13" s="1">
         <v>42833</v>
       </c>
@@ -1081,7 +1089,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" hidden="1">
       <c r="A14" s="1">
         <v>42833</v>
       </c>
@@ -1110,7 +1118,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:9" hidden="1">
       <c r="A15" s="1">
         <v>42833</v>
       </c>
@@ -1136,7 +1144,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:9" hidden="1">
       <c r="A16" s="1">
         <v>42833</v>
       </c>
@@ -1162,7 +1170,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:9" hidden="1">
       <c r="A17" s="1">
         <v>42833</v>
       </c>
@@ -1188,7 +1196,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:9" hidden="1">
       <c r="A18" s="1">
         <v>42833</v>
       </c>
@@ -1214,7 +1222,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:9" hidden="1">
       <c r="A19" s="1">
         <v>42833</v>
       </c>
@@ -1240,7 +1248,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:9" hidden="1">
       <c r="A20" s="1">
         <v>42833</v>
       </c>
@@ -1266,7 +1274,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:9" hidden="1">
       <c r="A21" s="1">
         <v>42833</v>
       </c>
@@ -1292,7 +1300,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:9" hidden="1">
       <c r="A22" s="1">
         <v>42833</v>
       </c>
@@ -1318,7 +1326,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" spans="1:9" hidden="1">
       <c r="A23" s="1">
         <v>42833</v>
       </c>
@@ -1344,7 +1352,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="1:9" hidden="1">
       <c r="A24" s="1">
         <v>42833</v>
       </c>
@@ -1370,7 +1378,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:9">
+    <row r="25" spans="1:9" hidden="1">
       <c r="A25" s="1">
         <v>42833</v>
       </c>
@@ -1399,7 +1407,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="1:9">
+    <row r="26" spans="1:9" hidden="1">
       <c r="A26" s="1">
         <v>42833</v>
       </c>
@@ -1425,7 +1433,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:9">
+    <row r="27" spans="1:9" hidden="1">
       <c r="A27" s="1">
         <v>42833</v>
       </c>
@@ -1451,7 +1459,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:9">
+    <row r="28" spans="1:9" hidden="1">
       <c r="A28" s="1">
         <v>42833</v>
       </c>
@@ -1477,7 +1485,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:9">
+    <row r="29" spans="1:9" hidden="1">
       <c r="A29" s="1">
         <v>42833</v>
       </c>
@@ -1503,7 +1511,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:9">
+    <row r="30" spans="1:9" hidden="1">
       <c r="A30" s="1">
         <v>42833</v>
       </c>
@@ -1532,7 +1540,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="1:9">
+    <row r="31" spans="1:9" hidden="1">
       <c r="A31" s="1">
         <v>42833</v>
       </c>
@@ -1561,7 +1569,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="32" spans="1:9">
+    <row r="32" spans="1:9" hidden="1">
       <c r="A32" s="1">
         <v>42833</v>
       </c>
@@ -1587,7 +1595,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:9">
+    <row r="33" spans="1:9" hidden="1">
       <c r="A33" s="1">
         <v>42833</v>
       </c>
@@ -1613,7 +1621,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:9">
+    <row r="34" spans="1:9" hidden="1">
       <c r="A34" s="1">
         <v>42833</v>
       </c>
@@ -1639,7 +1647,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="1:9">
+    <row r="35" spans="1:9" hidden="1">
       <c r="A35" s="1">
         <v>42833</v>
       </c>
@@ -1668,7 +1676,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="36" spans="1:9">
+    <row r="36" spans="1:9" hidden="1">
       <c r="A36" s="1">
         <v>42833</v>
       </c>
@@ -1694,7 +1702,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="37" spans="1:9">
+    <row r="37" spans="1:9" hidden="1">
       <c r="A37" s="1">
         <v>42833</v>
       </c>
@@ -1723,7 +1731,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="1:9">
+    <row r="38" spans="1:9" hidden="1">
       <c r="A38" s="1">
         <v>42833</v>
       </c>
@@ -1752,7 +1760,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="39" spans="1:9">
+    <row r="39" spans="1:9" hidden="1">
       <c r="A39" s="1">
         <v>42833</v>
       </c>
@@ -1781,7 +1789,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="40" spans="1:9">
+    <row r="40" spans="1:9" hidden="1">
       <c r="A40" s="1">
         <v>42833</v>
       </c>
@@ -1807,7 +1815,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:9">
+    <row r="41" spans="1:9" hidden="1">
       <c r="A41" s="1">
         <v>42833</v>
       </c>
@@ -1833,7 +1841,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:9">
+    <row r="42" spans="1:9" hidden="1">
       <c r="A42" s="1">
         <v>42833</v>
       </c>
@@ -1859,7 +1867,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="43" spans="1:9">
+    <row r="43" spans="1:9" hidden="1">
       <c r="A43" s="1">
         <v>42833</v>
       </c>
@@ -1885,7 +1893,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="44" spans="1:9">
+    <row r="44" spans="1:9" hidden="1">
       <c r="A44" s="1">
         <v>42833</v>
       </c>
@@ -1911,7 +1919,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="45" spans="1:9">
+    <row r="45" spans="1:9" hidden="1">
       <c r="A45" s="1">
         <v>42833</v>
       </c>
@@ -1940,7 +1948,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="46" spans="1:9">
+    <row r="46" spans="1:9" hidden="1">
       <c r="A46" s="1">
         <v>42833</v>
       </c>
@@ -1966,7 +1974,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="47" spans="1:9">
+    <row r="47" spans="1:9" hidden="1">
       <c r="A47" s="1">
         <v>42833</v>
       </c>
@@ -1992,7 +2000,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="48" spans="1:9">
+    <row r="48" spans="1:9" hidden="1">
       <c r="A48" s="1">
         <v>42833</v>
       </c>
@@ -2018,7 +2026,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="49" spans="1:9">
+    <row r="49" spans="1:9" hidden="1">
       <c r="A49" s="1">
         <v>42833</v>
       </c>
@@ -2044,7 +2052,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="50" spans="1:9">
+    <row r="50" spans="1:9" hidden="1">
       <c r="A50" s="1">
         <v>42833</v>
       </c>
@@ -2070,7 +2078,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="51" spans="1:9">
+    <row r="51" spans="1:9" hidden="1">
       <c r="A51" s="1">
         <v>42833</v>
       </c>
@@ -2099,7 +2107,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="52" spans="1:9">
+    <row r="52" spans="1:9" hidden="1">
       <c r="A52" s="1">
         <v>42833</v>
       </c>
@@ -2128,7 +2136,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="53" spans="1:9">
+    <row r="53" spans="1:9" hidden="1">
       <c r="A53" s="1">
         <v>42833</v>
       </c>
@@ -2157,7 +2165,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="54" spans="1:9">
+    <row r="54" spans="1:9" hidden="1">
       <c r="A54" s="1">
         <v>42833</v>
       </c>
@@ -2183,7 +2191,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:9">
+    <row r="55" spans="1:9" hidden="1">
       <c r="A55" s="1">
         <v>42833</v>
       </c>
@@ -2209,7 +2217,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:9">
+    <row r="56" spans="1:9" hidden="1">
       <c r="A56" s="1">
         <v>42833</v>
       </c>
@@ -2238,7 +2246,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="57" spans="1:9">
+    <row r="57" spans="1:9" hidden="1">
       <c r="A57" s="1">
         <v>42833</v>
       </c>
@@ -2264,7 +2272,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="58" spans="1:9">
+    <row r="58" spans="1:9" hidden="1">
       <c r="A58" s="1">
         <v>42833</v>
       </c>
@@ -2290,7 +2298,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="59" spans="1:9">
+    <row r="59" spans="1:9" hidden="1">
       <c r="A59" s="1">
         <v>42833</v>
       </c>
@@ -2316,7 +2324,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="60" spans="1:9">
+    <row r="60" spans="1:9" hidden="1">
       <c r="A60" s="1">
         <v>42833</v>
       </c>
@@ -2342,7 +2350,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="61" spans="1:9">
+    <row r="61" spans="1:9" hidden="1">
       <c r="A61" s="1">
         <v>42833</v>
       </c>

--- a/Data/2017-Oly-Histo-Results-REDO.xlsx
+++ b/Data/2017-Oly-Histo-Results-REDO.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28331"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11014"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/laura/Documents/roberts-lab/O.lurida_Stress/Data/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{004A9E3E-BB46-BB46-8C85-82C08D3B2A60}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5240" yWindow="0" windowWidth="20360" windowHeight="15420" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="14400" windowHeight="17540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="140000" concurrentCalc="0"/>
+  <calcPr calcId="140000"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -141,7 +147,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -170,6 +176,7 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -533,6 +540,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -857,14 +872,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P265"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="I52" sqref="I52"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A169" workbookViewId="0">
+      <selection activeCell="H250" sqref="H250"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="12.5" customWidth="1"/>
     <col min="2" max="2" width="10.83203125" customWidth="1"/>
@@ -883,7 +898,7 @@
     <col min="15" max="15" width="5.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="2" customFormat="1" ht="30" customHeight="1">
+    <row r="1" spans="1:16" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>36</v>
       </c>
@@ -930,7 +945,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:16">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>37</v>
       </c>
@@ -977,7 +992,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:16">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>37</v>
       </c>
@@ -1027,7 +1042,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:16">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>37</v>
       </c>
@@ -1074,7 +1089,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:16">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>37</v>
       </c>
@@ -1121,7 +1136,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:16">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>37</v>
       </c>
@@ -1168,7 +1183,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:16">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>37</v>
       </c>
@@ -1215,7 +1230,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:16">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>37</v>
       </c>
@@ -1262,7 +1277,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:16">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>37</v>
       </c>
@@ -1309,7 +1324,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:16">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>37</v>
       </c>
@@ -1356,7 +1371,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:16">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>37</v>
       </c>
@@ -1403,7 +1418,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="1:16">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>37</v>
       </c>
@@ -1450,7 +1465,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:16">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>37</v>
       </c>
@@ -1497,7 +1512,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="14" spans="1:16">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>37</v>
       </c>
@@ -1544,7 +1559,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="15" spans="1:16">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>37</v>
       </c>
@@ -1591,7 +1606,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="1:16">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>37</v>
       </c>
@@ -1638,7 +1653,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="17" spans="1:15">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>37</v>
       </c>
@@ -1685,7 +1700,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="18" spans="1:15">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>37</v>
       </c>
@@ -1732,7 +1747,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="19" spans="1:15">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>38</v>
       </c>
@@ -1779,7 +1794,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="20" spans="1:15">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>38</v>
       </c>
@@ -1826,7 +1841,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="21" spans="1:15">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>38</v>
       </c>
@@ -1873,7 +1888,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="22" spans="1:15">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>38</v>
       </c>
@@ -1920,7 +1935,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="23" spans="1:15">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>38</v>
       </c>
@@ -1967,7 +1982,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:15">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>38</v>
       </c>
@@ -2014,7 +2029,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="25" spans="1:15">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>38</v>
       </c>
@@ -2061,7 +2076,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="26" spans="1:15">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>38</v>
       </c>
@@ -2108,7 +2123,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="27" spans="1:15">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>38</v>
       </c>
@@ -2155,7 +2170,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="28" spans="1:15">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>38</v>
       </c>
@@ -2202,7 +2217,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="29" spans="1:15">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>38</v>
       </c>
@@ -2249,7 +2264,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="30" spans="1:15">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>38</v>
       </c>
@@ -2296,7 +2311,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="31" spans="1:15">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>38</v>
       </c>
@@ -2343,7 +2358,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="32" spans="1:15">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>38</v>
       </c>
@@ -2390,7 +2405,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="33" spans="1:15">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>38</v>
       </c>
@@ -2437,7 +2452,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="34" spans="1:15">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>38</v>
       </c>
@@ -2484,7 +2499,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="35" spans="1:15">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>38</v>
       </c>
@@ -2531,7 +2546,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="36" spans="1:15">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>38</v>
       </c>
@@ -2578,7 +2593,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="37" spans="1:15">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>38</v>
       </c>
@@ -2625,7 +2640,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="38" spans="1:15">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>38</v>
       </c>
@@ -2672,7 +2687,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="39" spans="1:15">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>38</v>
       </c>
@@ -2719,7 +2734,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="40" spans="1:15">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>38</v>
       </c>
@@ -2766,7 +2781,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="41" spans="1:15">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>38</v>
       </c>
@@ -2813,7 +2828,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="42" spans="1:15">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>38</v>
       </c>
@@ -2860,7 +2875,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="43" spans="1:15">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>38</v>
       </c>
@@ -2907,7 +2922,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="44" spans="1:15">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
         <v>38</v>
       </c>
@@ -2954,7 +2969,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="45" spans="1:15">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3001,7 +3016,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="46" spans="1:15">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
         <v>38</v>
       </c>
@@ -3048,7 +3063,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="47" spans="1:15">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
         <v>38</v>
       </c>
@@ -3095,7 +3110,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="48" spans="1:15">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
         <v>37</v>
       </c>
@@ -3142,7 +3157,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="49" spans="1:15">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
         <v>37</v>
       </c>
@@ -3189,7 +3204,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="50" spans="1:15">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
         <v>38</v>
       </c>
@@ -3236,7 +3251,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="51" spans="1:15">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
         <v>38</v>
       </c>
@@ -3283,7 +3298,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="52" spans="1:15">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
         <v>38</v>
       </c>
@@ -3330,7 +3345,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="53" spans="1:15">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
         <v>38</v>
       </c>
@@ -3377,7 +3392,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="54" spans="1:15">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
         <v>38</v>
       </c>
@@ -3424,7 +3439,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="55" spans="1:15">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
         <v>38</v>
       </c>
@@ -3471,7 +3486,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="56" spans="1:15">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
         <v>38</v>
       </c>
@@ -3518,7 +3533,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="57" spans="1:15">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
         <v>38</v>
       </c>
@@ -3565,7 +3580,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="58" spans="1:15">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
         <v>38</v>
       </c>
@@ -3612,7 +3627,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="59" spans="1:15">
+    <row r="59" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
         <v>38</v>
       </c>
@@ -3659,7 +3674,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="60" spans="1:15">
+    <row r="60" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
         <v>38</v>
       </c>
@@ -3706,7 +3721,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="61" spans="1:15">
+    <row r="61" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
         <v>38</v>
       </c>
@@ -3753,7 +3768,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="62" spans="1:15">
+    <row r="62" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
         <v>38</v>
       </c>
@@ -3800,7 +3815,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="63" spans="1:15">
+    <row r="63" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
         <v>37</v>
       </c>
@@ -3847,7 +3862,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="64" spans="1:15">
+    <row r="64" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
         <v>37</v>
       </c>
@@ -3894,7 +3909,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="65" spans="1:15">
+    <row r="65" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
         <v>37</v>
       </c>
@@ -3941,7 +3956,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="66" spans="1:15">
+    <row r="66" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
         <v>37</v>
       </c>
@@ -3988,7 +4003,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="67" spans="1:15">
+    <row r="67" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
         <v>37</v>
       </c>
@@ -4035,7 +4050,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="68" spans="1:15">
+    <row r="68" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
         <v>37</v>
       </c>
@@ -4082,7 +4097,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="69" spans="1:15">
+    <row r="69" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
         <v>37</v>
       </c>
@@ -4129,7 +4144,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="70" spans="1:15">
+    <row r="70" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
         <v>37</v>
       </c>
@@ -4176,7 +4191,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="71" spans="1:15">
+    <row r="71" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
         <v>37</v>
       </c>
@@ -4223,7 +4238,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="72" spans="1:15">
+    <row r="72" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
         <v>37</v>
       </c>
@@ -4270,7 +4285,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="73" spans="1:15">
+    <row r="73" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
         <v>37</v>
       </c>
@@ -4317,7 +4332,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="74" spans="1:15">
+    <row r="74" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
         <v>37</v>
       </c>
@@ -4364,7 +4379,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="75" spans="1:15">
+    <row r="75" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
         <v>37</v>
       </c>
@@ -4411,7 +4426,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="76" spans="1:15">
+    <row r="76" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
         <v>37</v>
       </c>
@@ -4458,7 +4473,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="77" spans="1:15">
+    <row r="77" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
         <v>37</v>
       </c>
@@ -4505,7 +4520,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="78" spans="1:15">
+    <row r="78" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
         <v>37</v>
       </c>
@@ -4552,7 +4567,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="79" spans="1:15">
+    <row r="79" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
         <v>37</v>
       </c>
@@ -4599,7 +4614,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="80" spans="1:15">
+    <row r="80" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
         <v>37</v>
       </c>
@@ -4646,7 +4661,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="81" spans="1:16">
+    <row r="81" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
         <v>37</v>
       </c>
@@ -4693,7 +4708,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="82" spans="1:16">
+    <row r="82" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
         <v>37</v>
       </c>
@@ -4740,7 +4755,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="83" spans="1:16">
+    <row r="83" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
         <v>37</v>
       </c>
@@ -4787,7 +4802,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="84" spans="1:16">
+    <row r="84" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
         <v>37</v>
       </c>
@@ -4834,7 +4849,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="85" spans="1:16">
+    <row r="85" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
         <v>37</v>
       </c>
@@ -4881,7 +4896,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="86" spans="1:16">
+    <row r="86" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
         <v>37</v>
       </c>
@@ -4928,7 +4943,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="87" spans="1:16">
+    <row r="87" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
         <v>37</v>
       </c>
@@ -4975,7 +4990,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="88" spans="1:16">
+    <row r="88" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
         <v>37</v>
       </c>
@@ -5022,7 +5037,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="89" spans="1:16">
+    <row r="89" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
         <v>37</v>
       </c>
@@ -5069,7 +5084,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="90" spans="1:16">
+    <row r="90" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
         <v>37</v>
       </c>
@@ -5116,7 +5131,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="91" spans="1:16">
+    <row r="91" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
         <v>37</v>
       </c>
@@ -5163,7 +5178,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="92" spans="1:16">
+    <row r="92" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
         <v>37</v>
       </c>
@@ -5210,7 +5225,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="93" spans="1:16">
+    <row r="93" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
         <v>37</v>
       </c>
@@ -5260,7 +5275,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="94" spans="1:16">
+    <row r="94" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
         <v>37</v>
       </c>
@@ -5307,7 +5322,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="95" spans="1:16">
+    <row r="95" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
         <v>37</v>
       </c>
@@ -5354,7 +5369,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="96" spans="1:16">
+    <row r="96" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
         <v>37</v>
       </c>
@@ -5401,7 +5416,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="97" spans="1:16">
+    <row r="97" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
         <v>37</v>
       </c>
@@ -5448,7 +5463,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="98" spans="1:16">
+    <row r="98" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
         <v>37</v>
       </c>
@@ -5495,7 +5510,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="99" spans="1:16">
+    <row r="99" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
         <v>37</v>
       </c>
@@ -5542,7 +5557,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="100" spans="1:16">
+    <row r="100" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
         <v>37</v>
       </c>
@@ -5589,7 +5604,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="101" spans="1:16">
+    <row r="101" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
         <v>37</v>
       </c>
@@ -5636,7 +5651,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="102" spans="1:16">
+    <row r="102" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
         <v>37</v>
       </c>
@@ -5683,7 +5698,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="103" spans="1:16">
+    <row r="103" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
         <v>37</v>
       </c>
@@ -5730,7 +5745,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="104" spans="1:16">
+    <row r="104" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
         <v>37</v>
       </c>
@@ -5777,7 +5792,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="105" spans="1:16">
+    <row r="105" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
         <v>37</v>
       </c>
@@ -5824,7 +5839,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="106" spans="1:16">
+    <row r="106" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
         <v>37</v>
       </c>
@@ -5871,7 +5886,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="107" spans="1:16">
+    <row r="107" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
         <v>37</v>
       </c>
@@ -5918,7 +5933,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="108" spans="1:16">
+    <row r="108" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A108" s="1" t="s">
         <v>37</v>
       </c>
@@ -5965,7 +5980,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="109" spans="1:16">
+    <row r="109" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A109" s="1" t="s">
         <v>37</v>
       </c>
@@ -6015,7 +6030,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="110" spans="1:16">
+    <row r="110" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A110" s="1" t="s">
         <v>37</v>
       </c>
@@ -6062,7 +6077,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="111" spans="1:16">
+    <row r="111" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A111" s="1" t="s">
         <v>37</v>
       </c>
@@ -6109,7 +6124,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="112" spans="1:16">
+    <row r="112" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A112" s="1" t="s">
         <v>37</v>
       </c>
@@ -6156,7 +6171,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="113" spans="1:16">
+    <row r="113" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A113" s="1" t="s">
         <v>37</v>
       </c>
@@ -6206,7 +6221,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="114" spans="1:16">
+    <row r="114" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A114" s="1" t="s">
         <v>37</v>
       </c>
@@ -6253,7 +6268,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="115" spans="1:16">
+    <row r="115" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
         <v>37</v>
       </c>
@@ -6300,7 +6315,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="116" spans="1:16">
+    <row r="116" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
         <v>37</v>
       </c>
@@ -6347,7 +6362,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="117" spans="1:16">
+    <row r="117" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A117" s="1" t="s">
         <v>38</v>
       </c>
@@ -6394,7 +6409,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="118" spans="1:16">
+    <row r="118" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A118" s="1" t="s">
         <v>38</v>
       </c>
@@ -6441,7 +6456,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="119" spans="1:16">
+    <row r="119" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A119" s="1" t="s">
         <v>38</v>
       </c>
@@ -6488,7 +6503,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="120" spans="1:16">
+    <row r="120" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A120" s="1" t="s">
         <v>38</v>
       </c>
@@ -6535,7 +6550,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="121" spans="1:16">
+    <row r="121" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A121" s="1" t="s">
         <v>38</v>
       </c>
@@ -6582,7 +6597,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="122" spans="1:16">
+    <row r="122" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A122" s="1" t="s">
         <v>38</v>
       </c>
@@ -6629,7 +6644,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="123" spans="1:16">
+    <row r="123" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A123" s="1" t="s">
         <v>38</v>
       </c>
@@ -6676,7 +6691,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="124" spans="1:16">
+    <row r="124" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A124" s="1" t="s">
         <v>38</v>
       </c>
@@ -6723,7 +6738,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="125" spans="1:16">
+    <row r="125" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A125" s="1" t="s">
         <v>38</v>
       </c>
@@ -6770,7 +6785,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="126" spans="1:16">
+    <row r="126" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A126" s="1" t="s">
         <v>38</v>
       </c>
@@ -6817,7 +6832,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="127" spans="1:16">
+    <row r="127" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A127" s="1" t="s">
         <v>38</v>
       </c>
@@ -6864,7 +6879,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="128" spans="1:16">
+    <row r="128" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A128" s="1" t="s">
         <v>38</v>
       </c>
@@ -6911,7 +6926,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="129" spans="1:15">
+    <row r="129" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A129" s="1" t="s">
         <v>38</v>
       </c>
@@ -6958,7 +6973,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="130" spans="1:15">
+    <row r="130" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A130" s="1" t="s">
         <v>38</v>
       </c>
@@ -7005,7 +7020,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="131" spans="1:15">
+    <row r="131" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A131" s="1" t="s">
         <v>38</v>
       </c>
@@ -7052,7 +7067,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="132" spans="1:15">
+    <row r="132" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A132" s="1" t="s">
         <v>38</v>
       </c>
@@ -7099,7 +7114,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="133" spans="1:15">
+    <row r="133" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A133" s="1" t="s">
         <v>38</v>
       </c>
@@ -7146,7 +7161,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="134" spans="1:15">
+    <row r="134" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A134" s="1" t="s">
         <v>38</v>
       </c>
@@ -7193,7 +7208,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="135" spans="1:15">
+    <row r="135" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A135" s="1" t="s">
         <v>38</v>
       </c>
@@ -7240,7 +7255,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="136" spans="1:15">
+    <row r="136" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A136" s="1" t="s">
         <v>38</v>
       </c>
@@ -7287,7 +7302,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="137" spans="1:15">
+    <row r="137" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A137" s="1" t="s">
         <v>38</v>
       </c>
@@ -7334,7 +7349,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="138" spans="1:15">
+    <row r="138" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A138" s="1" t="s">
         <v>38</v>
       </c>
@@ -7381,7 +7396,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="139" spans="1:15">
+    <row r="139" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A139" s="1" t="s">
         <v>38</v>
       </c>
@@ -7428,7 +7443,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="140" spans="1:15">
+    <row r="140" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A140" s="1" t="s">
         <v>38</v>
       </c>
@@ -7475,7 +7490,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="141" spans="1:15">
+    <row r="141" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A141" s="1" t="s">
         <v>38</v>
       </c>
@@ -7522,7 +7537,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="142" spans="1:15">
+    <row r="142" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A142" s="1" t="s">
         <v>38</v>
       </c>
@@ -7569,7 +7584,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="143" spans="1:15">
+    <row r="143" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A143" s="1" t="s">
         <v>38</v>
       </c>
@@ -7616,7 +7631,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="144" spans="1:15">
+    <row r="144" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A144" s="1" t="s">
         <v>38</v>
       </c>
@@ -7663,7 +7678,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="145" spans="1:15">
+    <row r="145" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A145" s="1" t="s">
         <v>37</v>
       </c>
@@ -7710,7 +7725,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="146" spans="1:15">
+    <row r="146" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A146" s="1" t="s">
         <v>37</v>
       </c>
@@ -7757,7 +7772,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="147" spans="1:15">
+    <row r="147" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A147" s="1" t="s">
         <v>37</v>
       </c>
@@ -7804,7 +7819,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="148" spans="1:15">
+    <row r="148" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A148" s="1" t="s">
         <v>37</v>
       </c>
@@ -7851,7 +7866,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="149" spans="1:15">
+    <row r="149" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A149" s="1" t="s">
         <v>37</v>
       </c>
@@ -7898,7 +7913,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="150" spans="1:15">
+    <row r="150" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A150" s="1" t="s">
         <v>37</v>
       </c>
@@ -7945,7 +7960,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="151" spans="1:15">
+    <row r="151" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A151" s="1" t="s">
         <v>37</v>
       </c>
@@ -7992,7 +8007,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="152" spans="1:15">
+    <row r="152" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A152" s="1" t="s">
         <v>37</v>
       </c>
@@ -8039,7 +8054,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="153" spans="1:15">
+    <row r="153" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A153" s="1" t="s">
         <v>37</v>
       </c>
@@ -8086,7 +8101,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="154" spans="1:15">
+    <row r="154" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A154" s="1" t="s">
         <v>37</v>
       </c>
@@ -8133,7 +8148,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="155" spans="1:15">
+    <row r="155" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A155" s="1" t="s">
         <v>37</v>
       </c>
@@ -8180,7 +8195,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="156" spans="1:15">
+    <row r="156" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A156" s="1" t="s">
         <v>37</v>
       </c>
@@ -8227,7 +8242,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="157" spans="1:15">
+    <row r="157" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A157" s="1" t="s">
         <v>37</v>
       </c>
@@ -8274,7 +8289,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="158" spans="1:15">
+    <row r="158" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A158" s="1" t="s">
         <v>37</v>
       </c>
@@ -8321,7 +8336,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="159" spans="1:15">
+    <row r="159" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A159" s="1" t="s">
         <v>37</v>
       </c>
@@ -8368,7 +8383,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="160" spans="1:15">
+    <row r="160" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A160" s="1" t="s">
         <v>37</v>
       </c>
@@ -8415,7 +8430,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="161" spans="1:15">
+    <row r="161" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A161" s="1" t="s">
         <v>37</v>
       </c>
@@ -8462,7 +8477,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="162" spans="1:15">
+    <row r="162" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A162" s="1" t="s">
         <v>37</v>
       </c>
@@ -8509,7 +8524,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="163" spans="1:15">
+    <row r="163" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A163" s="1" t="s">
         <v>37</v>
       </c>
@@ -8556,7 +8571,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="164" spans="1:15">
+    <row r="164" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A164" s="1" t="s">
         <v>37</v>
       </c>
@@ -8603,7 +8618,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="165" spans="1:15">
+    <row r="165" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A165" s="1" t="s">
         <v>37</v>
       </c>
@@ -8650,7 +8665,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="166" spans="1:15">
+    <row r="166" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A166" s="1" t="s">
         <v>37</v>
       </c>
@@ -8697,7 +8712,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="167" spans="1:15">
+    <row r="167" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A167" s="1" t="s">
         <v>37</v>
       </c>
@@ -8744,7 +8759,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="168" spans="1:15">
+    <row r="168" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A168" s="1" t="s">
         <v>37</v>
       </c>
@@ -8791,7 +8806,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="169" spans="1:15">
+    <row r="169" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A169" s="1" t="s">
         <v>37</v>
       </c>
@@ -8838,7 +8853,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="170" spans="1:15">
+    <row r="170" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A170" s="1" t="s">
         <v>37</v>
       </c>
@@ -8885,7 +8900,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="171" spans="1:15">
+    <row r="171" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A171" s="1" t="s">
         <v>37</v>
       </c>
@@ -8932,7 +8947,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="172" spans="1:15">
+    <row r="172" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A172" s="1" t="s">
         <v>37</v>
       </c>
@@ -8979,7 +8994,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="173" spans="1:15">
+    <row r="173" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A173" s="1" t="s">
         <v>37</v>
       </c>
@@ -9026,7 +9041,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="174" spans="1:15">
+    <row r="174" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A174" s="1" t="s">
         <v>37</v>
       </c>
@@ -9073,7 +9088,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="175" spans="1:15">
+    <row r="175" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A175" s="1" t="s">
         <v>37</v>
       </c>
@@ -9120,7 +9135,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="176" spans="1:15">
+    <row r="176" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A176" s="1" t="s">
         <v>37</v>
       </c>
@@ -9167,7 +9182,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="177" spans="1:15">
+    <row r="177" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A177" s="1" t="s">
         <v>37</v>
       </c>
@@ -9214,7 +9229,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="178" spans="1:15">
+    <row r="178" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A178" s="1" t="s">
         <v>37</v>
       </c>
@@ -9261,7 +9276,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="179" spans="1:15">
+    <row r="179" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A179" s="1" t="s">
         <v>37</v>
       </c>
@@ -9308,7 +9323,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="180" spans="1:15">
+    <row r="180" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A180" s="1" t="s">
         <v>37</v>
       </c>
@@ -9355,7 +9370,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="181" spans="1:15">
+    <row r="181" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A181" s="1" t="s">
         <v>37</v>
       </c>
@@ -9402,7 +9417,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="182" spans="1:15">
+    <row r="182" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A182" s="1" t="s">
         <v>37</v>
       </c>
@@ -9449,7 +9464,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="183" spans="1:15">
+    <row r="183" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A183" s="1" t="s">
         <v>37</v>
       </c>
@@ -9496,7 +9511,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="184" spans="1:15">
+    <row r="184" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A184" s="1" t="s">
         <v>37</v>
       </c>
@@ -9543,7 +9558,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="185" spans="1:15">
+    <row r="185" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A185" s="1" t="s">
         <v>37</v>
       </c>
@@ -9590,7 +9605,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="186" spans="1:15">
+    <row r="186" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A186" s="1" t="s">
         <v>37</v>
       </c>
@@ -9637,7 +9652,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="187" spans="1:15">
+    <row r="187" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A187" s="1" t="s">
         <v>37</v>
       </c>
@@ -9684,7 +9699,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="188" spans="1:15">
+    <row r="188" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A188" s="1" t="s">
         <v>37</v>
       </c>
@@ -9731,7 +9746,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="189" spans="1:15">
+    <row r="189" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A189" s="1" t="s">
         <v>37</v>
       </c>
@@ -9778,7 +9793,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="190" spans="1:15">
+    <row r="190" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A190" s="1" t="s">
         <v>37</v>
       </c>
@@ -9825,7 +9840,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="191" spans="1:15">
+    <row r="191" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A191" s="1" t="s">
         <v>37</v>
       </c>
@@ -9872,7 +9887,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="192" spans="1:15">
+    <row r="192" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A192" s="1" t="s">
         <v>37</v>
       </c>
@@ -9919,7 +9934,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="193" spans="1:15">
+    <row r="193" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A193" s="1" t="s">
         <v>37</v>
       </c>
@@ -9966,7 +9981,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="194" spans="1:15">
+    <row r="194" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A194" s="1" t="s">
         <v>37</v>
       </c>
@@ -10013,7 +10028,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="195" spans="1:15">
+    <row r="195" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A195" s="1" t="s">
         <v>37</v>
       </c>
@@ -10060,7 +10075,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="196" spans="1:15">
+    <row r="196" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A196" s="1" t="s">
         <v>37</v>
       </c>
@@ -10107,7 +10122,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="197" spans="1:15">
+    <row r="197" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A197" s="1" t="s">
         <v>37</v>
       </c>
@@ -10154,7 +10169,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="198" spans="1:15">
+    <row r="198" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A198" s="1" t="s">
         <v>37</v>
       </c>
@@ -10201,7 +10216,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="199" spans="1:15">
+    <row r="199" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A199" s="1" t="s">
         <v>37</v>
       </c>
@@ -10248,7 +10263,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="200" spans="1:15">
+    <row r="200" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A200" s="1" t="s">
         <v>37</v>
       </c>
@@ -10295,7 +10310,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="201" spans="1:15">
+    <row r="201" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A201" s="1" t="s">
         <v>37</v>
       </c>
@@ -10342,7 +10357,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="202" spans="1:15">
+    <row r="202" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A202" s="1" t="s">
         <v>37</v>
       </c>
@@ -10389,7 +10404,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="203" spans="1:15">
+    <row r="203" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A203" s="1" t="s">
         <v>37</v>
       </c>
@@ -10436,7 +10451,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="204" spans="1:15">
+    <row r="204" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A204" s="1" t="s">
         <v>37</v>
       </c>
@@ -10480,7 +10495,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="205" spans="1:15">
+    <row r="205" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A205" s="1" t="s">
         <v>38</v>
       </c>
@@ -10527,7 +10542,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="206" spans="1:15">
+    <row r="206" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A206" s="1" t="s">
         <v>38</v>
       </c>
@@ -10574,7 +10589,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="207" spans="1:15">
+    <row r="207" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A207" s="1" t="s">
         <v>38</v>
       </c>
@@ -10621,7 +10636,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="208" spans="1:15">
+    <row r="208" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A208" s="1" t="s">
         <v>38</v>
       </c>
@@ -10668,7 +10683,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="209" spans="1:15">
+    <row r="209" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A209" s="1" t="s">
         <v>38</v>
       </c>
@@ -10715,7 +10730,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="210" spans="1:15">
+    <row r="210" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A210" s="1" t="s">
         <v>38</v>
       </c>
@@ -10762,7 +10777,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="211" spans="1:15">
+    <row r="211" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A211" s="1" t="s">
         <v>38</v>
       </c>
@@ -10809,7 +10824,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="212" spans="1:15">
+    <row r="212" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A212" s="1" t="s">
         <v>38</v>
       </c>
@@ -10856,7 +10871,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="213" spans="1:15">
+    <row r="213" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A213" s="1" t="s">
         <v>38</v>
       </c>
@@ -10903,7 +10918,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="214" spans="1:15">
+    <row r="214" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A214" s="1" t="s">
         <v>38</v>
       </c>
@@ -10950,7 +10965,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="215" spans="1:15">
+    <row r="215" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A215" s="1" t="s">
         <v>38</v>
       </c>
@@ -10997,7 +11012,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="216" spans="1:15">
+    <row r="216" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A216" s="1" t="s">
         <v>38</v>
       </c>
@@ -11044,7 +11059,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="217" spans="1:15">
+    <row r="217" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A217" s="1" t="s">
         <v>38</v>
       </c>
@@ -11091,7 +11106,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="218" spans="1:15">
+    <row r="218" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A218" s="1" t="s">
         <v>38</v>
       </c>
@@ -11138,7 +11153,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="219" spans="1:15">
+    <row r="219" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A219" s="1" t="s">
         <v>38</v>
       </c>
@@ -11185,7 +11200,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="220" spans="1:15">
+    <row r="220" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A220" s="1" t="s">
         <v>38</v>
       </c>
@@ -11232,7 +11247,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="221" spans="1:15">
+    <row r="221" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A221" s="1" t="s">
         <v>38</v>
       </c>
@@ -11279,7 +11294,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="222" spans="1:15">
+    <row r="222" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A222" s="1" t="s">
         <v>38</v>
       </c>
@@ -11326,7 +11341,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="223" spans="1:15">
+    <row r="223" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A223" s="1" t="s">
         <v>38</v>
       </c>
@@ -11373,7 +11388,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="224" spans="1:15">
+    <row r="224" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A224" s="1" t="s">
         <v>38</v>
       </c>
@@ -11420,7 +11435,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="225" spans="1:15">
+    <row r="225" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A225" s="1" t="s">
         <v>38</v>
       </c>
@@ -11467,7 +11482,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="226" spans="1:15">
+    <row r="226" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A226" s="1" t="s">
         <v>38</v>
       </c>
@@ -11514,7 +11529,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="227" spans="1:15">
+    <row r="227" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A227" s="1" t="s">
         <v>38</v>
       </c>
@@ -11561,7 +11576,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="228" spans="1:15">
+    <row r="228" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A228" s="1" t="s">
         <v>38</v>
       </c>
@@ -11608,7 +11623,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="229" spans="1:15">
+    <row r="229" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A229" s="1" t="s">
         <v>38</v>
       </c>
@@ -11655,7 +11670,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="230" spans="1:15">
+    <row r="230" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A230" s="1" t="s">
         <v>38</v>
       </c>
@@ -11702,7 +11717,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="231" spans="1:15">
+    <row r="231" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A231" s="1" t="s">
         <v>38</v>
       </c>
@@ -11749,7 +11764,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="232" spans="1:15">
+    <row r="232" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A232" s="1" t="s">
         <v>37</v>
       </c>
@@ -11796,7 +11811,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="233" spans="1:15">
+    <row r="233" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A233" s="1" t="s">
         <v>37</v>
       </c>
@@ -11843,7 +11858,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="234" spans="1:15">
+    <row r="234" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A234" s="1" t="s">
         <v>37</v>
       </c>
@@ -11890,7 +11905,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="235" spans="1:15">
+    <row r="235" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A235" s="1" t="s">
         <v>37</v>
       </c>
@@ -11937,7 +11952,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="236" spans="1:15">
+    <row r="236" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A236" s="1" t="s">
         <v>37</v>
       </c>
@@ -11984,7 +11999,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="237" spans="1:15">
+    <row r="237" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A237" s="1" t="s">
         <v>37</v>
       </c>
@@ -12031,7 +12046,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="238" spans="1:15">
+    <row r="238" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A238" s="1" t="s">
         <v>37</v>
       </c>
@@ -12078,7 +12093,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="239" spans="1:15">
+    <row r="239" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A239" s="1" t="s">
         <v>37</v>
       </c>
@@ -12125,7 +12140,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="240" spans="1:15">
+    <row r="240" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A240" s="1" t="s">
         <v>37</v>
       </c>
@@ -12172,7 +12187,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="241" spans="1:15">
+    <row r="241" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A241" s="1" t="s">
         <v>37</v>
       </c>
@@ -12219,7 +12234,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="242" spans="1:15">
+    <row r="242" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A242" s="1" t="s">
         <v>37</v>
       </c>
@@ -12266,7 +12281,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="243" spans="1:15">
+    <row r="243" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A243" s="1" t="s">
         <v>37</v>
       </c>
@@ -12313,7 +12328,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="244" spans="1:15">
+    <row r="244" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A244" s="1" t="s">
         <v>37</v>
       </c>
@@ -12360,7 +12375,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="245" spans="1:15">
+    <row r="245" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A245" s="1" t="s">
         <v>37</v>
       </c>
@@ -12407,7 +12422,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="246" spans="1:15">
+    <row r="246" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A246" s="1" t="s">
         <v>37</v>
       </c>
@@ -12454,7 +12469,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="247" spans="1:15">
+    <row r="247" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A247" s="1" t="s">
         <v>37</v>
       </c>
@@ -12501,7 +12516,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="248" spans="1:15">
+    <row r="248" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A248" s="1" t="s">
         <v>37</v>
       </c>
@@ -12548,7 +12563,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="249" spans="1:15">
+    <row r="249" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A249" s="1" t="s">
         <v>37</v>
       </c>
@@ -12595,7 +12610,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="250" spans="1:15">
+    <row r="250" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A250" s="1" t="s">
         <v>37</v>
       </c>
@@ -12642,7 +12657,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="251" spans="1:15">
+    <row r="251" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A251" s="1" t="s">
         <v>37</v>
       </c>
@@ -12689,7 +12704,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="252" spans="1:15">
+    <row r="252" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A252" s="1" t="s">
         <v>38</v>
       </c>
@@ -12736,7 +12751,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="253" spans="1:15">
+    <row r="253" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A253" s="1" t="s">
         <v>38</v>
       </c>
@@ -12783,7 +12798,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="254" spans="1:15">
+    <row r="254" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A254" s="1" t="s">
         <v>38</v>
       </c>
@@ -12830,7 +12845,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="255" spans="1:15">
+    <row r="255" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A255" s="1" t="s">
         <v>38</v>
       </c>
@@ -12877,7 +12892,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="256" spans="1:15">
+    <row r="256" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A256" s="1" t="s">
         <v>38</v>
       </c>
@@ -12924,7 +12939,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="257" spans="1:15">
+    <row r="257" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A257" s="1" t="s">
         <v>38</v>
       </c>
@@ -12971,7 +12986,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="258" spans="1:15">
+    <row r="258" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A258" s="1" t="s">
         <v>38</v>
       </c>
@@ -13018,7 +13033,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="259" spans="1:15">
+    <row r="259" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A259" s="1" t="s">
         <v>38</v>
       </c>
@@ -13065,7 +13080,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="260" spans="1:15">
+    <row r="260" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A260" s="1" t="s">
         <v>38</v>
       </c>
@@ -13112,7 +13127,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="261" spans="1:15">
+    <row r="261" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A261" s="1" t="s">
         <v>37</v>
       </c>
@@ -13159,7 +13174,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="262" spans="1:15">
+    <row r="262" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A262" s="1" t="s">
         <v>37</v>
       </c>
@@ -13206,7 +13221,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="263" spans="1:15">
+    <row r="263" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A263" s="1" t="s">
         <v>37</v>
       </c>
@@ -13253,7 +13268,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="264" spans="1:15">
+    <row r="264" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A264" s="1" t="s">
         <v>38</v>
       </c>
@@ -13300,7 +13315,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="265" spans="1:15">
+    <row r="265" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A265" s="1" t="s">
         <v>38</v>
       </c>
